--- a/PowerBI_Fundamentals_NL/Orders.xlsx
+++ b/PowerBI_Fundamentals_NL/Orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas TA.THOM_DESK_22\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13201E7B-32CF-4C23-8E7A-6AFC0423FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC04283-B12D-4F99-BBF2-E80B733ADE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +645,12 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
       <c r="K6">
         <v>2025</v>
       </c>
@@ -677,6 +683,12 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="K7">
         <v>2025</v>
       </c>
@@ -709,6 +721,12 @@
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
       <c r="K8">
         <v>2025</v>
       </c>
@@ -741,6 +759,12 @@
         <f t="shared" si="0"/>
         <v>108000</v>
       </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
       <c r="K9">
         <v>2025</v>
       </c>
@@ -773,6 +797,12 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
       <c r="K10">
         <v>2025</v>
       </c>
@@ -805,6 +835,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
       <c r="K11">
         <v>2025</v>
       </c>
@@ -837,6 +873,12 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
       <c r="K12">
         <v>2025</v>
       </c>
@@ -869,6 +911,12 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
       <c r="K13">
         <v>2025</v>
       </c>
@@ -901,6 +949,12 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
       <c r="K14">
         <v>2025</v>
       </c>
@@ -933,6 +987,12 @@
         <f t="shared" si="0"/>
         <v>3300</v>
       </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
       <c r="K15">
         <v>2025</v>
       </c>
@@ -965,6 +1025,12 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
       <c r="K16">
         <v>2025</v>
       </c>
@@ -997,6 +1063,12 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
       <c r="K17">
         <v>2025</v>
       </c>
@@ -1029,6 +1101,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="I18">
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
       <c r="K18">
         <v>2025</v>
       </c>
@@ -1061,6 +1139,12 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
       <c r="K19">
         <v>2025</v>
       </c>
@@ -1093,6 +1177,12 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
       <c r="K20">
         <v>2025</v>
       </c>
@@ -1125,6 +1215,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
       <c r="K21">
         <v>2025</v>
       </c>
@@ -1157,6 +1253,12 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
       <c r="K22">
         <v>2025</v>
       </c>
@@ -1189,6 +1291,12 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
       <c r="K23">
         <v>2025</v>
       </c>
@@ -1221,6 +1329,12 @@
         <f t="shared" si="0"/>
         <v>19800</v>
       </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
       <c r="K24">
         <v>2025</v>
       </c>
@@ -1253,6 +1367,12 @@
         <f t="shared" si="0"/>
         <v>88800</v>
       </c>
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
       <c r="K25">
         <v>2025</v>
       </c>
@@ -1285,6 +1405,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
       <c r="K26">
         <v>2025</v>
       </c>
@@ -1317,6 +1443,12 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
       <c r="K27">
         <v>2025</v>
       </c>
@@ -1349,6 +1481,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
       <c r="K28">
         <v>2025</v>
       </c>
@@ -1381,6 +1519,12 @@
         <f t="shared" si="0"/>
         <v>19800</v>
       </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
       <c r="K29">
         <v>2025</v>
       </c>
@@ -1413,6 +1557,12 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
       <c r="K30">
         <v>2025</v>
       </c>
@@ -1445,6 +1595,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
       <c r="K31">
         <v>2025</v>
       </c>
@@ -1477,6 +1633,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
       <c r="K32">
         <v>2025</v>
       </c>
@@ -1509,6 +1671,12 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
       <c r="K33">
         <v>2025</v>
       </c>
@@ -1541,6 +1709,12 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
+      <c r="I34">
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
       <c r="K34">
         <v>2025</v>
       </c>
@@ -1573,6 +1747,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
       <c r="K35">
         <v>2025</v>
       </c>
@@ -1605,6 +1785,12 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
       <c r="K36">
         <v>2025</v>
       </c>
@@ -1637,6 +1823,12 @@
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
       <c r="K37">
         <v>2025</v>
       </c>
@@ -1669,6 +1861,12 @@
         <f t="shared" si="0"/>
         <v>78000</v>
       </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
       <c r="K38">
         <v>2025</v>
       </c>
@@ -1701,6 +1899,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
       <c r="K39">
         <v>2025</v>
       </c>
@@ -1733,6 +1937,12 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
+      <c r="I40">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
       <c r="K40">
         <v>2025</v>
       </c>
@@ -1764,6 +1974,12 @@
       <c r="H41">
         <f t="shared" si="0"/>
         <v>250</v>
+      </c>
+      <c r="I41">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
       </c>
       <c r="K41">
         <v>2025</v>

--- a/PowerBI_Fundamentals_NL/Orders.xlsx
+++ b/PowerBI_Fundamentals_NL/Orders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas TA.THOM_DESK_22\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tomstechacademy-my.sharepoint.com/personal/thomas_janssen_tomstechacademy_com/Documents/00. TOMS TECH ACADEMY/06. Python Scripts/Training_Material/PowerBI_Fundamentals_NL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC04283-B12D-4F99-BBF2-E80B733ADE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{13201E7B-32CF-4C23-8E7A-6AFC0423FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578662B6-D799-456C-A275-D13EC265FEA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
   <si>
     <t>OrderNr</t>
   </si>
@@ -103,13 +103,24 @@
   <si>
     <t>Tafel</t>
   </si>
+  <si>
+    <t>Vertegenwoordiger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,49 +444,53 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2">
-        <v>2025001</v>
+        <v>2024001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -489,32 +505,35 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <f>G2*F2</f>
-        <v>200</v>
+        <f>F2*G2</f>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3">
         <f>B2+1</f>
-        <v>2025002</v>
+        <v>2024002</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -526,32 +545,35 @@
         <v>2.5</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H41" si="0">G3*F3</f>
-        <v>625</v>
+        <f t="shared" ref="H3:H41" si="0">F3*G3</f>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B41" si="1">B3+1</f>
-        <v>2025003</v>
+        <v>2024003</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -563,33 +585,36 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>230</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>104</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>2025004</v>
+        <v>2024004</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -601,33 +626,36 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A41" si="2">A5+1</f>
         <v>105</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>2025005</v>
+        <v>2024005</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -639,33 +667,36 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>2025006</v>
+        <v>2024006</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -677,33 +708,36 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>2025007</v>
+        <v>2024007</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -715,30 +749,33 @@
         <v>22</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>17600</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>2025008</v>
+        <v>2024008</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -753,30 +790,33 @@
         <v>120</v>
       </c>
       <c r="G9">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>60000</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>2025009</v>
+        <v>2024009</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -791,33 +831,36 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>2025010</v>
+        <v>2024010</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -829,33 +872,36 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>2025011</v>
+        <v>2024011</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -867,33 +913,36 @@
         <v>2.5</v>
       </c>
       <c r="G12">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>2025012</v>
+        <v>2024012</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -905,33 +954,36 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>2025013</v>
+        <v>2024013</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -943,33 +995,36 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="I14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>2025014</v>
+        <v>2024014</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -981,33 +1036,36 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>8800</v>
       </c>
       <c r="I15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>4</v>
       </c>
       <c r="K15">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>2025015</v>
+        <v>2024015</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1019,33 +1077,36 @@
         <v>30</v>
       </c>
       <c r="G16">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>2700</v>
       </c>
       <c r="I16">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>2025016</v>
+        <v>2024016</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -1057,33 +1118,36 @@
         <v>120</v>
       </c>
       <c r="G17">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="I17">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>2025017</v>
+        <v>2024017</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1095,30 +1159,33 @@
         <v>2</v>
       </c>
       <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
       <c r="I18">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>2025018</v>
+        <v>2024018</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1133,33 +1200,36 @@
         <v>2</v>
       </c>
       <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
       <c r="I19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>2025019</v>
+        <v>2024019</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1171,33 +1241,36 @@
         <v>2.5</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>6</v>
       </c>
       <c r="K20">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>2025020</v>
+        <v>2024020</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1209,33 +1282,36 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J21">
         <v>6</v>
       </c>
       <c r="K21">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>2025021</v>
+        <v>2024021</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1247,33 +1323,36 @@
         <v>15</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="I22">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>2025022</v>
+        <v>2024022</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1285,33 +1364,36 @@
         <v>30</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>2700</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <v>7</v>
       </c>
       <c r="K23">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>2025023</v>
+        <v>2024023</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1323,33 +1405,36 @@
         <v>22</v>
       </c>
       <c r="G24">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>19800</v>
+        <v>11000</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>7</v>
       </c>
       <c r="K24">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>2025024</v>
+        <v>2024024</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1361,33 +1446,36 @@
         <v>120</v>
       </c>
       <c r="G25">
-        <v>740</v>
+        <v>350</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>88800</v>
+        <v>42000</v>
       </c>
       <c r="I25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J25">
         <v>7</v>
       </c>
       <c r="K25">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>2025025</v>
+        <v>2024025</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -1399,30 +1487,33 @@
         <v>30</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>2025026</v>
+        <v>2024026</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1437,33 +1528,36 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
       <c r="K27">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>2025027</v>
+        <v>2024027</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -1475,33 +1569,36 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>2025028</v>
+        <v>2024028</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -1513,33 +1610,36 @@
         <v>22</v>
       </c>
       <c r="G29">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>19800</v>
+        <v>8800</v>
       </c>
       <c r="I29">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>2025029</v>
+        <v>2024029</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -1551,33 +1651,36 @@
         <v>120</v>
       </c>
       <c r="G30">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>84000</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J30">
         <v>9</v>
       </c>
       <c r="K30">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>2025030</v>
+        <v>2024030</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1589,33 +1692,36 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>2025031</v>
+        <v>2024031</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -1627,33 +1733,36 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I32">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>2025032</v>
+        <v>2024032</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -1665,33 +1774,36 @@
         <v>2.5</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="K33">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>2025033</v>
+        <v>2024033</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -1703,33 +1815,36 @@
         <v>30</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="I34">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K34">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>2025034</v>
+        <v>2024034</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1741,33 +1856,36 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I35">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K35">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>2025035</v>
+        <v>2024035</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1779,30 +1897,33 @@
         <v>15</v>
       </c>
       <c r="G36">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J36">
         <v>11</v>
       </c>
       <c r="K36">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>2025036</v>
+        <v>2024036</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1817,33 +1938,36 @@
         <v>22</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>15400</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K37">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>2025037</v>
+        <v>2024037</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -1855,30 +1979,33 @@
         <v>120</v>
       </c>
       <c r="G38">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>108000</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>2025038</v>
+        <v>2024038</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1893,33 +2020,36 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39">
         <v>12</v>
       </c>
       <c r="K39">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>2025039</v>
+        <v>2024039</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -1931,33 +2061,36 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I40">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <v>12</v>
       </c>
       <c r="K40">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>2025040</v>
+        <v>2024040</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -1969,20 +2102,1502 @@
         <v>2.5</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="I41">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J41">
         <v>12</v>
       </c>
       <c r="K41">
-        <v>2025</v>
+        <v>2024</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2025001</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <f>G42*F42</f>
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2025</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>B42+1</f>
+        <v>2025002</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>2.5</v>
+      </c>
+      <c r="G43">
+        <v>250</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H81" si="3">G43*F43</f>
+        <v>625</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2025</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" ref="B44:B81" si="4">B43+1</f>
+        <v>2025003</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>110</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="I44">
+        <v>18</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2025</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>2025004</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>230</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="I45">
+        <v>22</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2025</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>2025005</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2025</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>2025006</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2025</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>2025007</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="I48">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2025</v>
+      </c>
+      <c r="L48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>2025008</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>120</v>
+      </c>
+      <c r="G49">
+        <v>900</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>108000</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>2025</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>2025009</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>800</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>2025</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>2025010</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>250</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>2025</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>2025011</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>2.5</v>
+      </c>
+      <c r="G52">
+        <v>88</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="I52">
+        <v>18</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>2025</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>2025012</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>90</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>2025</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>2025013</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>2025</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>2025014</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>150</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>2025</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>2025015</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>2025</v>
+      </c>
+      <c r="L56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>2025016</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>120</v>
+      </c>
+      <c r="G57">
+        <v>250</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>2025</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>2025017</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I58">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>2025</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>2025018</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>80</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>2025</v>
+      </c>
+      <c r="L59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>2025019</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>2.5</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>2025</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>2025020</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>2025</v>
+      </c>
+      <c r="L61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>2025021</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="I62">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>2025</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>2025022</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>2025</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>2025023</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>900</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>19800</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <v>2025</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>2025024</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>120</v>
+      </c>
+      <c r="G65">
+        <v>740</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>88800</v>
+      </c>
+      <c r="I65">
+        <v>11</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+      <c r="K65">
+        <v>2025</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>2025025</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I66">
+        <v>19</v>
+      </c>
+      <c r="J66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>2025</v>
+      </c>
+      <c r="L66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>2025026</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>80</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="I67">
+        <v>24</v>
+      </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>2025</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>2025027</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>2025</v>
+      </c>
+      <c r="L68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>2025028</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>900</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>19800</v>
+      </c>
+      <c r="I69">
+        <v>11</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>2025</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>2025029</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>120</v>
+      </c>
+      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="I70">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>2025</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>2025030</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>11</v>
+      </c>
+      <c r="J71">
+        <v>9</v>
+      </c>
+      <c r="K71">
+        <v>2025</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>2025031</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>19</v>
+      </c>
+      <c r="J72">
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>2025</v>
+      </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>2025032</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="I73">
+        <v>11</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>2025</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>2025033</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>33</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="I74">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>2025</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>2025034</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="I75">
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>2025</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>2025035</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>80</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>11</v>
+      </c>
+      <c r="K76">
+        <v>2025</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>2025036</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>22</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="I77">
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <v>2025</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>2025037</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>120</v>
+      </c>
+      <c r="G78">
+        <v>650</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>78000</v>
+      </c>
+      <c r="I78">
+        <v>24</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>2025</v>
+      </c>
+      <c r="L78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>2025038</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>26</v>
+      </c>
+      <c r="J79">
+        <v>12</v>
+      </c>
+      <c r="K79">
+        <v>2025</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>2025039</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="I80">
+        <v>27</v>
+      </c>
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80">
+        <v>2025</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>2025040</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>2.5</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="I81">
+        <v>29</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>2025</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
